--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori3/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori3/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capture Failed . Stick movement detected . Panorama has stopped .</t>
+          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Panorama has stopped</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Impact detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Impact detected</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft stopped</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,31 +707,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft stopped</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
+          <t>Check whether propellers are installed correctly</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -790,36 +790,6 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori3/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori3/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
+          <t>Capture Failed . Stick movement detected . Panorama has stopped .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Panorama has stopped</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
+          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Impact detected</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Impact detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft stopped</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,31 +707,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Aircraft stopped</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,20 +776,50 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Check whether propellers are installed correctly</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
